--- a/biology/Zoologie/Jilinus_hulongense/Jilinus_hulongense.xlsx
+++ b/biology/Zoologie/Jilinus_hulongense/Jilinus_hulongense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jilinus hulongense, unique représentant du genre Jilinus, est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jilinus hulongense, unique représentant du genre Jilinus, est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Chine, en Corée du Sud et en Extrême-Orient russe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Chine, en Corée du Sud et en Extrême-Orient russe.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle paratype mesure 2,40 mm et les femelles de 2,75 à 3,20 mm[2].
-Le mâle décrit par Lin, Lopardo et Uhl en 2022 mesure 1,90 mm et la femelle 2,46 mm, les mâles mesurent de 1,66 à 1,94 mm et les femelles de 2,17 à 2,70 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle paratype mesure 2,40 mm et les femelles de 2,75 à 3,20 mm.
+Le mâle décrit par Lin, Lopardo et Uhl en 2022 mesure 1,90 mm et la femelle 2,46 mm, les mâles mesurent de 1,66 à 1,94 mm et les femelles de 2,17 à 2,70 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Oedothorax hulongensis par Zhu et Wen en 1980. Elle est placée dans le genre Jilinus par Lin, Lopardo et Uhl en 2022[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Oedothorax hulongensis par Zhu et Wen en 1980. Elle est placée dans le genre Jilinus par Lin, Lopardo et Uhl en 2022.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de hulong et du suffixe latin -ense, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Helong.
 </t>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Zhu &amp; Wen, 1980 : « A preliminary report of Micryphantidae (Arachnida: Araneae) from China. » Journal of the Bethune Medical University, vol. 6, no 4, p. 17-24.
 Lin, Lopardo &amp; Uhl, 2022 : « Evolution of nuptial-gift-related male prosomal structures: taxonomic revision and cladistic analysis of the genus Oedothorax (Araneae: Linyphiidae: Erigoninae). » Zoological Journal of the Linnean Society, vol. 195, no 2, p. 417-584.</t>
